--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2795129.703486034</v>
+        <v>2792877.623774827</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228317</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8802557.796585796</v>
+        <v>8802557.796585793</v>
       </c>
     </row>
     <row r="11">
@@ -662,13 +662,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>354.9020767819617</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>149.3482793282688</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414539</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>61.058014877892</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>75.32106881022196</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>55.45354938846194</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>115.8280970078238</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>132.7694272888375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.051689109229</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>71.68269007697872</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>73.67381963986992</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>2.155902292902968</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>114.4901656548223</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695516</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.752258470138</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="12">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819372</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986277</v>
+        <v>75.08886905994629</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.316432677153248e-13</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E13" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922687</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012176</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U13" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238279</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365909</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X13" t="n">
-        <v>16.92025364382209</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695516</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174145</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F16" t="n">
-        <v>22.04658882054081</v>
+        <v>102.1557845699805</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012176</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U16" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238279</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365909</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X16" t="n">
-        <v>-1.316432677153248e-13</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819372</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>141.6930519056947</v>
       </c>
       <c r="E19" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>14.92158678358699</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2239,25 +2239,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922687</v>
+        <v>53.11937003877865</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>53.26309598425429</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229311</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856539</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>198.7868646016115</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>-1.236927801563791e-13</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462238</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012157</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U28" t="n">
-        <v>105.6356839950556</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887086</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520947</v>
       </c>
     </row>
     <row r="29">
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>34.0049084329469</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569541</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>7.069540131683957</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3487,10 +3487,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>45.16086499484859</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>84.53948348634543</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3904,16 +3904,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,13 +3955,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>226.3549379952692</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>-1.236927801563791e-13</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>-1.236927801563791e-13</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465691</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>42.71572132711597</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856542</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012157</v>
       </c>
       <c r="S46" t="n">
-        <v>115.6949510903003</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520947</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1565.440264581601</v>
+        <v>1144.379366334374</v>
       </c>
       <c r="C2" t="n">
-        <v>1565.440264581601</v>
+        <v>1144.379366334374</v>
       </c>
       <c r="D2" t="n">
-        <v>1565.440264581601</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="E2" t="n">
-        <v>1179.652011983357</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
@@ -4331,22 +4331,22 @@
         <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
@@ -4361,19 +4361,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176917</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2325.505862906803</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1952.040104645723</v>
+        <v>1921.118538374307</v>
       </c>
       <c r="Y2" t="n">
-        <v>1952.040104645723</v>
+        <v>1530.979206398496</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.0565485757124</v>
+        <v>128.1868789351046</v>
       </c>
       <c r="C4" t="n">
-        <v>831.0565485757124</v>
+        <v>128.1868789351046</v>
       </c>
       <c r="D4" t="n">
-        <v>680.9399091633767</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>533.0268155809836</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>386.1368680830732</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757124</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757124</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T4" t="n">
-        <v>831.0565485757124</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="U4" t="n">
-        <v>831.0565485757124</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="V4" t="n">
-        <v>831.0565485757124</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="W4" t="n">
-        <v>831.0565485757124</v>
+        <v>128.1868789351046</v>
       </c>
       <c r="X4" t="n">
-        <v>831.0565485757124</v>
+        <v>128.1868789351046</v>
       </c>
       <c r="Y4" t="n">
-        <v>831.0565485757124</v>
+        <v>128.1868789351046</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>921.7704558796256</v>
+        <v>1628.178203944121</v>
       </c>
       <c r="C5" t="n">
-        <v>552.807938939214</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>194.5422403324635</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>194.5422403324635</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>77.54416254678287</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943747</v>
+        <v>2014.778044008242</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>383.3613929424835</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>214.4252100145765</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
         <v>66.51211643218342</v>
@@ -4723,52 +4723,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>786.7764732031972</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T7" t="n">
-        <v>565.0098577727232</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U7" t="n">
-        <v>565.0098577727232</v>
+        <v>549.1861555360877</v>
       </c>
       <c r="V7" t="n">
-        <v>565.0098577727232</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="W7" t="n">
-        <v>565.0098577727232</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X7" t="n">
-        <v>565.0098577727232</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y7" t="n">
-        <v>565.0098577727232</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1537.086630593157</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C8" t="n">
-        <v>1168.124113652745</v>
+        <v>942.9472709150261</v>
       </c>
       <c r="D8" t="n">
-        <v>809.8584150459947</v>
+        <v>584.6815723082757</v>
       </c>
       <c r="E8" t="n">
-        <v>424.0701624477504</v>
+        <v>198.8933197100314</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>191.947818960828</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>180.9157728462285</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3251.187821972939</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3251.187821972939</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2997.657345246776</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2666.594457903205</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2313.82580263309</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2313.82580263309</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1923.686470657279</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,7 +4884,7 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158131</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>385.5649387724261</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C10" t="n">
-        <v>216.6287558445192</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
@@ -4969,43 +4969,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>729.2011216450114</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>729.2011216450114</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U10" t="n">
-        <v>729.2011216450114</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="V10" t="n">
-        <v>729.2011216450114</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="W10" t="n">
-        <v>729.2011216450114</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X10" t="n">
-        <v>501.2115707469941</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y10" t="n">
-        <v>385.5649387724261</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362682</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5054,37 +5054,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L12" t="n">
-        <v>949.9304447718133</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>724.7519863413016</v>
+        <v>923.4916164683279</v>
       </c>
       <c r="C13" t="n">
-        <v>555.8158034133949</v>
+        <v>847.6442739835337</v>
       </c>
       <c r="D13" t="n">
-        <v>555.815803413395</v>
+        <v>697.5276345711978</v>
       </c>
       <c r="E13" t="n">
-        <v>407.902709831002</v>
+        <v>549.6145409888046</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330918</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648822</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611861</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1127.193030315071</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y13" t="n">
-        <v>906.4004511715411</v>
+        <v>923.4916164683279</v>
       </c>
     </row>
     <row r="14">
@@ -5255,22 +5255,22 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5279,31 +5279,31 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
@@ -5315,13 +5315,13 @@
         <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
         <v>2283.159972732779</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>741.8431516381031</v>
+        <v>513.8536007400706</v>
       </c>
       <c r="C16" t="n">
-        <v>572.9069687101963</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="D16" t="n">
-        <v>572.9069687101965</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="E16" t="n">
-        <v>424.9938751278034</v>
+        <v>197.0043242297704</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908935</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057736</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797863</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910821</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.56011257083</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279815</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853374</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580273</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832676</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.06254548758</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510522</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.38585385472</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648833</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611873</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611873</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y16" t="n">
-        <v>923.4916164683427</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="17">
@@ -5492,31 +5492,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5534,22 +5534,22 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>2283.159972732779</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>719.5738700011932</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>550.6376870732864</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>550.6376870732864</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908934</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908935</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057736</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648822</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611861</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138439</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>901.2223348314328</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,22 +5738,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,31 +5765,31 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>1231.938859683105</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>923.4916164683311</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>754.5554335404244</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>604.4387941280888</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E22" t="n">
-        <v>456.5257005456958</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F22" t="n">
-        <v>456.5257005456958</v>
+        <v>229.5592957321579</v>
       </c>
       <c r="G22" t="n">
-        <v>289.3296012605759</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>147.6177701027742</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648822</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611861</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611861</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>923.4916164683311</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,19 +5969,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192599</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,22 +6060,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>781.3544215660697</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>612.418238638163</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381631</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557701</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578599</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578599</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235167</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2063.313436506266</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1774.238209850464</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1519.553721644577</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1230.136551607617</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1002.1470007096</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>781.3544215660696</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,22 +6206,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,19 +6300,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.627092998424</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>554.581316546016</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>385.6451336181092</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>235.5284942057736</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U28" t="n">
-        <v>1870.758369404391</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.073881198505</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W28" t="n">
-        <v>1326.656711161544</v>
+        <v>1185.011911417803</v>
       </c>
       <c r="X28" t="n">
-        <v>1098.667160263527</v>
+        <v>957.0223605197856</v>
       </c>
       <c r="Y28" t="n">
-        <v>1098.667160263527</v>
+        <v>736.2297813762556</v>
       </c>
     </row>
     <row r="29">
@@ -6467,13 +6467,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6540,16 +6540,16 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>139.234765840794</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
         <v>1859.536823237711</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>782.8410298377091</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6692,28 +6692,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6737,10 +6737,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1023.721406539404</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>854.7852236114967</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>704.6685841991609</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E34" t="n">
-        <v>556.7554906167678</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F34" t="n">
-        <v>409.8655431188574</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G34" t="n">
-        <v>242.6694438337374</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>100.9576126759355</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1205.369871369643</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6926,7 +6926,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>506.2737913123336</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.652278938886</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7135,10 +7135,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7214,7 +7214,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,19 +7248,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>869.9745311434712</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>701.0383482155643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>550.9217088032285</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>403.0086152208354</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>403.0086152208354</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1051.622995973711</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7412,7 +7412,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7497,16 +7497,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1526.790206091931</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1237.37303605497</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1237.37303605497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7725,19 +7725,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397182</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M45" t="n">
-        <v>1522.21291626627</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>800.6374272687975</v>
+        <v>513.8536007400743</v>
       </c>
       <c r="C46" t="n">
-        <v>631.7012443408906</v>
+        <v>513.8536007400744</v>
       </c>
       <c r="D46" t="n">
-        <v>631.7012443408906</v>
+        <v>513.8536007400745</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>365.9405071576815</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>219.0505596597713</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>219.0505596597713</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S46" t="n">
-        <v>2263.053792872764</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T46" t="n">
-        <v>2043.452327895704</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U46" t="n">
-        <v>1754.377101239902</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V46" t="n">
-        <v>1499.692613034015</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W46" t="n">
-        <v>1210.275442997055</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X46" t="n">
-        <v>982.2858920990373</v>
+        <v>916.2946447138439</v>
       </c>
       <c r="Y46" t="n">
-        <v>982.2858920990373</v>
+        <v>695.5020655703139</v>
       </c>
     </row>
   </sheetData>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>92.15795203868166</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856539</v>
+        <v>81.26583631856562</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>208.7894017452149</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>123.3744592023903</v>
+        <v>43.26526345295085</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856539</v>
+        <v>81.26583631856562</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182122</v>
+        <v>6.922421112517611</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856539</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>203.6630665685076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>112.4047682534902</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>28.0027403343111</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.709655389037</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>43.26526345294992</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012154</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>18.61858572567661</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856542</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,19 +24655,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>180.5487903941885</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>40.32043864788233</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>122.8084169651565</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>252.5180899036441</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>74.19629618688158</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,10 +25375,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>173.4237883572462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>80.98465480592341</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,16 +25792,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,13 +25843,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>25.78270532855879</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.5789915191078</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>65.3313349113443</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>761859.2038385638</v>
+        <v>761859.2038385633</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>761859.2038385636</v>
+        <v>761859.2038385635</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>761859.2038385636</v>
+        <v>761859.2038385633</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>761859.2038385636</v>
+        <v>761859.2038385634</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>761859.2038385635</v>
+        <v>761859.2038385634</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>761859.2038385636</v>
+        <v>761859.2038385634</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>761859.2038385635</v>
+        <v>761859.2038385634</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>761859.2038385634</v>
+        <v>761859.2038385635</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380341</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.460138034</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.460138034</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="F2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="G2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="H2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="J2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="K2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="L2" t="n">
         <v>665895.944744255</v>
-      </c>
-      <c r="I2" t="n">
-        <v>665895.944744255</v>
-      </c>
-      <c r="J2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="L2" t="n">
-        <v>665895.9447442549</v>
       </c>
       <c r="M2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9.89542241251033e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.5839718921</v>
+        <v>16046.58397189178</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189219</v>
+        <v>16046.58397189186</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189203</v>
+        <v>16046.58397189193</v>
       </c>
       <c r="H4" t="n">
+        <v>16046.58397189196</v>
+      </c>
+      <c r="I4" t="n">
+        <v>16046.58397189197</v>
+      </c>
+      <c r="J4" t="n">
         <v>16046.58397189204</v>
-      </c>
-      <c r="I4" t="n">
-        <v>16046.58397189204</v>
-      </c>
-      <c r="J4" t="n">
-        <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189203</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="N4" t="n">
-        <v>16046.583971892</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="O4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="P4" t="n">
-        <v>16046.58397189198</v>
+        <v>16046.58397189201</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-852915.9702550041</v>
+        <v>-852915.9702550049</v>
       </c>
       <c r="C6" t="n">
-        <v>475828.7754725877</v>
+        <v>475828.7754725881</v>
       </c>
       <c r="D6" t="n">
-        <v>475828.7754725877</v>
+        <v>475828.7754725881</v>
       </c>
       <c r="E6" t="n">
-        <v>223314.3691411003</v>
+        <v>223279.631215665</v>
       </c>
       <c r="F6" t="n">
-        <v>548726.8309484557</v>
+        <v>548692.0930230203</v>
       </c>
       <c r="G6" t="n">
-        <v>548726.8309484557</v>
+        <v>548692.0930230205</v>
       </c>
       <c r="H6" t="n">
-        <v>548726.830948456</v>
+        <v>548692.0930230203</v>
       </c>
       <c r="I6" t="n">
-        <v>548726.830948456</v>
+        <v>548692.0930230201</v>
       </c>
       <c r="J6" t="n">
-        <v>331195.6285511783</v>
+        <v>331160.8906257426</v>
       </c>
       <c r="K6" t="n">
-        <v>548726.8309484557</v>
+        <v>548692.0930230203</v>
       </c>
       <c r="L6" t="n">
-        <v>548726.8309484558</v>
+        <v>548692.0930230202</v>
       </c>
       <c r="M6" t="n">
-        <v>463671.803012944</v>
+        <v>463637.0650875082</v>
       </c>
       <c r="N6" t="n">
-        <v>548726.830948456</v>
+        <v>548692.0930230204</v>
       </c>
       <c r="O6" t="n">
-        <v>548726.8309484557</v>
+        <v>548692.0930230202</v>
       </c>
       <c r="P6" t="n">
-        <v>548726.8309484557</v>
+        <v>548692.0930230201</v>
       </c>
     </row>
   </sheetData>
@@ -26692,22 +26692,22 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.236927801563791e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.236927801563791e-13</v>
       </c>
     </row>
     <row r="3">
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1.236927801563791e-13</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.236927801563791e-13</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.236927801563791e-13</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,13 +27382,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>51.97396895974975</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>220.3828213502003</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27540,22 +27540,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>87.55745814032036</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>90.70473944880627</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,10 +27585,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>309.8193423825456</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>291.0479487338877</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>56.99959804260439</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>7.160149096383918</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>222.9250743103418</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>35.51394214830592</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28059,13 +28059,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>284.0559359127099</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>104.0944876972725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>-3.74815484906198e-14</v>
       </c>
       <c r="N13" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>-1.236927801563791e-13</v>
       </c>
       <c r="O13" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>-1.236927801563791e-13</v>
       </c>
       <c r="P13" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>-1.236927801563791e-13</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>-1.236927801563791e-13</v>
       </c>
       <c r="R13" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>-1.236927801563791e-13</v>
       </c>
       <c r="S13" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>-1.236927801563791e-13</v>
       </c>
       <c r="T13" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>-1.236927801563791e-13</v>
       </c>
       <c r="U13" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>-1.236927801563791e-13</v>
       </c>
       <c r="V13" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>-1.236927801563791e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>-1.236927801563791e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>-1.236927801563791e-13</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>-1.236927801563791e-13</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28482,28 +28482,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28512,46 +28512,46 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1.196884690828136e-11</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>-6.415677748871222e-14</v>
       </c>
       <c r="P16" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>-1.236927801563791e-13</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>-1.236927801563791e-13</v>
       </c>
       <c r="R16" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>-1.236927801563791e-13</v>
       </c>
       <c r="S16" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>-1.236927801563791e-13</v>
       </c>
       <c r="T16" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>-1.236927801563791e-13</v>
       </c>
       <c r="U16" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>-1.236927801563791e-13</v>
       </c>
       <c r="V16" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>-1.236927801563791e-13</v>
       </c>
       <c r="W16" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>-1.236927801563791e-13</v>
       </c>
       <c r="X16" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>-1.236927801563791e-13</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>-1.236927801563791e-13</v>
       </c>
     </row>
     <row r="17">
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-7.283470503043547e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1.236927801563791e-13</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1.236927801563791e-13</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1.236927801563791e-13</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1.236927801563791e-13</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1.236927801563791e-13</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1.236927801563791e-13</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1.236927801563791e-13</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1.236927801563791e-13</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1.236927801563791e-13</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1.236927801563791e-13</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.236927801563791e-13</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1.236927801563791e-13</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1.236927801563791e-13</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1.236927801563791e-13</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>1.236927801563791e-13</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>1.236927801563791e-13</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.236927801563791e-13</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1.236927801563791e-13</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.236927801563791e-13</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1.236927801563791e-13</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.236927801563791e-13</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1.236927801563791e-13</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>1.236927801563791e-13</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>1.236927801563791e-13</v>
       </c>
     </row>
     <row r="29">
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -30286,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1.236927801563791e-13</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1.236927801563791e-13</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1.236927801563791e-13</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>1.236927801563791e-13</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1.236927801563791e-13</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1.236927801563791e-13</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1.236927801563791e-13</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1.236927801563791e-13</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>1.236927801563791e-13</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>1.236927801563791e-13</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1.236927801563791e-13</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1.236927801563791e-13</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1.236927801563791e-13</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1.236927801563791e-13</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1.236927801563791e-13</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1.236927801563791e-13</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1.236927801563791e-13</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1.236927801563791e-13</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1.236927801563791e-13</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1.236927801563791e-13</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>1.236927801563791e-13</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>1.236927801563791e-13</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>1.236927801563791e-13</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>1.236927801563791e-13</v>
       </c>
     </row>
   </sheetData>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31604,7 +31604,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
         <v>508.9565619138796</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>514.8598010172138</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550387</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>320.9147064709964</v>
+        <v>193.1175412796302</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,19 +32315,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>750.6021172789107</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32488,7 +32488,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236522</v>
       </c>
       <c r="Q20" t="n">
         <v>593.8732233669223</v>
@@ -32546,25 +32546,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>301.1823051500301</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32792,13 +32792,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>244.0266243181833</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359103</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32968,7 +32968,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33020,22 +33020,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33260,10 +33260,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>181.9330708814852</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,7 +33272,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,7 +33503,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>142.1340339220183</v>
@@ -33515,7 +33515,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>165.2255134509767</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33740,19 +33740,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>555.1777416630679</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>251.886104915025</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,22 +33968,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M39" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34132,7 +34132,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34144,7 +34144,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34217,19 +34217,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>320.9147064709964</v>
+        <v>602.4605829984181</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34445,22 +34445,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>472.0729312464055</v>
+        <v>601.0567753070492</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
         <v>370.4021821340054</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>376.3054212373396</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717054</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295332</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>189.5729943876631</v>
+        <v>61.77582919629693</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295332</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191434</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066251</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,19 +35963,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>619.2604051955774</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36136,7 +36136,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683826</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>159.0482712280117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36440,13 +36440,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>101.892590396165</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>235.501032152577</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,22 +36668,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295349</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096351</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>44.09163190712619</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,7 +36920,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,7 +37151,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37163,7 +37163,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>31.25110603664647</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,19 +37388,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>416.6233618831937</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,22 +37616,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>285.360777932</v>
       </c>
       <c r="M39" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37792,7 +37792,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37865,19 +37865,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>189.5729943876631</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38093,22 +38093,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>340.7312191630721</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295349</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096351</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
